--- a/Code/Results/Cases/Case_1_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2394964560021577</v>
+        <v>0.08076402653203729</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1232176094196973</v>
+        <v>0.175567214580866</v>
       </c>
       <c r="E2">
-        <v>0.08774065141387766</v>
+        <v>0.1530259809589367</v>
       </c>
       <c r="F2">
-        <v>0.7866994001292156</v>
+        <v>1.445659671885061</v>
       </c>
       <c r="G2">
-        <v>0.0008042131154949695</v>
+        <v>0.00246107558446808</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2235845925821325</v>
+        <v>0.5250896831123804</v>
       </c>
       <c r="J2">
-        <v>0.08705345743378956</v>
+        <v>0.1729647364851488</v>
       </c>
       <c r="K2">
-        <v>1.680827256821829</v>
+        <v>0.614301067686938</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4629958096820488</v>
+        <v>0.2847130190385627</v>
       </c>
       <c r="N2">
-        <v>0.8161693141735036</v>
+        <v>1.606286738031979</v>
       </c>
       <c r="O2">
-        <v>1.840599224389422</v>
+        <v>3.504915846646043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2086274966176518</v>
+        <v>0.07103114751537021</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1117999715448406</v>
+        <v>0.1733145716070226</v>
       </c>
       <c r="E3">
-        <v>0.081938446706733</v>
+        <v>0.1524065783082875</v>
       </c>
       <c r="F3">
-        <v>0.7492878988338987</v>
+        <v>1.44628900331282</v>
       </c>
       <c r="G3">
-        <v>0.0008080760191392367</v>
+        <v>0.002463692435612008</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2353866614378095</v>
+        <v>0.5315640392458052</v>
       </c>
       <c r="J3">
-        <v>0.08344248704899115</v>
+        <v>0.1731919482371644</v>
       </c>
       <c r="K3">
-        <v>1.461265230710552</v>
+        <v>0.5495467292039109</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4039424938277421</v>
+        <v>0.2688932535344222</v>
       </c>
       <c r="N3">
-        <v>0.8508512158565864</v>
+        <v>1.621621793670325</v>
       </c>
       <c r="O3">
-        <v>1.769816487854257</v>
+        <v>3.512950023484478</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.189653680367968</v>
+        <v>0.06505023982553837</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1048812310274059</v>
+        <v>0.171997797137756</v>
       </c>
       <c r="E4">
-        <v>0.07847905850995218</v>
+        <v>0.1520919391578275</v>
       </c>
       <c r="F4">
-        <v>0.7276569561402368</v>
+        <v>1.447414254614174</v>
       </c>
       <c r="G4">
-        <v>0.0008105292474292685</v>
+        <v>0.002465386315214413</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2430546632873538</v>
+        <v>0.5357740824352826</v>
       </c>
       <c r="J4">
-        <v>0.08136085674870941</v>
+        <v>0.1734112798005754</v>
       </c>
       <c r="K4">
-        <v>1.326668323561051</v>
+        <v>0.5098179786788535</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3678743914550324</v>
+        <v>0.2592774678017378</v>
       </c>
       <c r="N4">
-        <v>0.8731397182355636</v>
+        <v>1.631559231558565</v>
       </c>
       <c r="O4">
-        <v>1.729858710369456</v>
+        <v>3.519745360594442</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1819154321107419</v>
+        <v>0.06261194150879135</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1020834969005335</v>
+        <v>0.1714779607190806</v>
       </c>
       <c r="E5">
-        <v>0.0770939956350567</v>
+        <v>0.1519802700391217</v>
       </c>
       <c r="F5">
-        <v>0.7191623686980932</v>
+        <v>1.448058711018312</v>
       </c>
       <c r="G5">
-        <v>0.0008115497632109465</v>
+        <v>0.002466098557368284</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2462830004566099</v>
+        <v>0.5375487565399615</v>
       </c>
       <c r="J5">
-        <v>0.08054508913403424</v>
+        <v>0.1735207480988983</v>
       </c>
       <c r="K5">
-        <v>1.271853897062357</v>
+        <v>0.4936367820641863</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3532179914205926</v>
+        <v>0.2553837403482007</v>
       </c>
       <c r="N5">
-        <v>0.8824670216437767</v>
+        <v>1.635740056022637</v>
       </c>
       <c r="O5">
-        <v>1.714412899724636</v>
+        <v>3.522982911517659</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.180630089914672</v>
+        <v>0.06220700753920028</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1016202079779731</v>
+        <v>0.1713926567025368</v>
       </c>
       <c r="E6">
-        <v>0.07686546042344133</v>
+        <v>0.1519627279793738</v>
       </c>
       <c r="F6">
-        <v>0.7177707143392809</v>
+        <v>1.448176954416624</v>
       </c>
       <c r="G6">
-        <v>0.0008117204852232753</v>
+        <v>0.002466218153562182</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2468252492478911</v>
+        <v>0.5378470065614511</v>
       </c>
       <c r="J6">
-        <v>0.08041155094919716</v>
+        <v>0.1735401390444373</v>
       </c>
       <c r="K6">
-        <v>1.26275357231404</v>
+        <v>0.4909504514899652</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3507866434665203</v>
+        <v>0.2547386937132856</v>
       </c>
       <c r="N6">
-        <v>0.8840304332407456</v>
+        <v>1.636442207114925</v>
       </c>
       <c r="O6">
-        <v>1.711897471977807</v>
+        <v>3.523548797357364</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1895493465412699</v>
+        <v>0.065017359990307</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1048434136560914</v>
+        <v>0.1719907184831229</v>
       </c>
       <c r="E7">
-        <v>0.07846028084660617</v>
+        <v>0.1520903660978696</v>
       </c>
       <c r="F7">
-        <v>0.7275411202107662</v>
+        <v>1.447422193088336</v>
       </c>
       <c r="G7">
-        <v>0.0008105429259121858</v>
+        <v>0.002465395831572625</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.243097785577941</v>
+        <v>0.5357977772109743</v>
       </c>
       <c r="J7">
-        <v>0.08134972538817209</v>
+        <v>0.1734126747667055</v>
       </c>
       <c r="K7">
-        <v>1.325928960242663</v>
+        <v>0.5095997174508966</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3676765696477915</v>
+        <v>0.2592248549702063</v>
       </c>
       <c r="N7">
-        <v>0.8732645261417105</v>
+        <v>1.631615084156103</v>
       </c>
       <c r="O7">
-        <v>1.729647068580789</v>
+        <v>3.519787126692279</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2288562701597101</v>
+        <v>0.07740925820723987</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1192609263714672</v>
+        <v>0.1747767740065171</v>
       </c>
       <c r="E8">
-        <v>0.08571784236808</v>
+        <v>0.152798799604227</v>
       </c>
       <c r="F8">
-        <v>0.7735114946218076</v>
+        <v>1.445723387667904</v>
       </c>
       <c r="G8">
-        <v>0.0008055283609703645</v>
+        <v>0.002461959831536908</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2275649848327133</v>
+        <v>0.5272733254996433</v>
       </c>
       <c r="J8">
-        <v>0.08577930217304441</v>
+        <v>0.1730265216665785</v>
       </c>
       <c r="K8">
-        <v>1.605065682995985</v>
+        <v>0.5919679120618468</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4425906633118899</v>
+        <v>0.2792382411690539</v>
       </c>
       <c r="N8">
-        <v>0.8279181331157872</v>
+        <v>1.611466035990393</v>
       </c>
       <c r="O8">
-        <v>1.815439351708733</v>
+        <v>3.507299558937945</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3058382111618982</v>
+        <v>0.1016634899278444</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1483275262535955</v>
+        <v>0.1807639182862886</v>
       </c>
       <c r="E9">
-        <v>0.1008302338570424</v>
+        <v>0.1547078849242247</v>
       </c>
       <c r="F9">
-        <v>0.8750907655895617</v>
+        <v>1.448250828886557</v>
       </c>
       <c r="G9">
-        <v>0.0007963244417639463</v>
+        <v>0.002455910159139662</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.200561986401997</v>
+        <v>0.5124187786961985</v>
       </c>
       <c r="J9">
-        <v>0.09561573317483152</v>
+        <v>0.1729020572964259</v>
       </c>
       <c r="K9">
-        <v>2.155105798625641</v>
+        <v>0.7537044064186773</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5913224362065534</v>
+        <v>0.3192506650167601</v>
       </c>
       <c r="N9">
-        <v>0.7471269380057848</v>
+        <v>1.576089563627839</v>
       </c>
       <c r="O9">
-        <v>2.013556563520979</v>
+        <v>3.497587355974929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3624317877287524</v>
+        <v>0.1194464784621658</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.17026570400634</v>
+        <v>0.185478766887158</v>
       </c>
       <c r="E10">
-        <v>0.1125613703485264</v>
+        <v>0.1564260406315192</v>
       </c>
       <c r="F10">
-        <v>0.9578743117031792</v>
+        <v>1.453677170223429</v>
       </c>
       <c r="G10">
-        <v>0.0007899223446111618</v>
+        <v>0.002451880930335281</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1829916777954423</v>
+        <v>0.5026387123383049</v>
       </c>
       <c r="J10">
-        <v>0.1036541275235265</v>
+        <v>0.1731958426696707</v>
       </c>
       <c r="K10">
-        <v>2.56228223418222</v>
+        <v>0.8726323179833457</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.702178481629872</v>
+        <v>0.3491069231723145</v>
       </c>
       <c r="N10">
-        <v>0.6930874272724701</v>
+        <v>1.552614528228546</v>
       </c>
       <c r="O10">
-        <v>2.180409265721721</v>
+        <v>3.499463868327439</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3882079677533312</v>
+        <v>0.1275267931052753</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1803960118748194</v>
+        <v>0.1876916767888162</v>
       </c>
       <c r="E11">
-        <v>0.1180561872189436</v>
+        <v>0.1572759254398797</v>
       </c>
       <c r="F11">
-        <v>0.9975865727643338</v>
+        <v>1.456920525714722</v>
       </c>
       <c r="G11">
-        <v>0.0007870824611727611</v>
+        <v>0.002450137262173684</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1755285802783959</v>
+        <v>0.4984353273999371</v>
       </c>
       <c r="J11">
-        <v>0.107513412212441</v>
+        <v>0.173413047153673</v>
       </c>
       <c r="K11">
-        <v>2.74853062369229</v>
+        <v>0.9267518652663682</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7530661634936848</v>
+        <v>0.3627874982420849</v>
       </c>
       <c r="N11">
-        <v>0.6697427673015248</v>
+        <v>1.542480379899612</v>
       </c>
       <c r="O11">
-        <v>2.261672195633366</v>
+        <v>3.502275745830872</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3979751514525418</v>
+        <v>0.1305850873758061</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1842557870694179</v>
+        <v>0.1885393747744644</v>
       </c>
       <c r="E12">
-        <v>0.1201615964844329</v>
+        <v>0.1576075451568322</v>
       </c>
       <c r="F12">
-        <v>1.012944964691258</v>
+        <v>1.45826005628625</v>
       </c>
       <c r="G12">
-        <v>0.0007860170061943826</v>
+        <v>0.00244948974761976</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1727820080718718</v>
+        <v>0.4968789198265995</v>
       </c>
       <c r="J12">
-        <v>0.1090062801631149</v>
+        <v>0.1735073004620205</v>
       </c>
       <c r="K12">
-        <v>2.81923560361588</v>
+        <v>0.9472474712938492</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7724118788123064</v>
+        <v>0.3679819866009737</v>
       </c>
       <c r="N12">
-        <v>0.6610884521063944</v>
+        <v>1.538721123113369</v>
       </c>
       <c r="O12">
-        <v>2.293280762503031</v>
+        <v>3.503622142049181</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3958713037815045</v>
+        <v>0.1299265011350883</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1834234303563989</v>
+        <v>0.1883563768867873</v>
       </c>
       <c r="E13">
-        <v>0.1197070316544995</v>
+        <v>0.1575356901706293</v>
       </c>
       <c r="F13">
-        <v>1.009622602789321</v>
+        <v>1.457966613796202</v>
       </c>
       <c r="G13">
-        <v>0.0007862460364007062</v>
+        <v>0.002449628634238498</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1733699383524741</v>
+        <v>0.4972125489807677</v>
       </c>
       <c r="J13">
-        <v>0.1086833275337753</v>
+        <v>0.1734864677127348</v>
       </c>
       <c r="K13">
-        <v>2.803999659677231</v>
+        <v>0.9428333153493043</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7682419059795436</v>
+        <v>0.3668626442020297</v>
       </c>
       <c r="N13">
-        <v>0.6629439216027571</v>
+        <v>1.539527262933618</v>
       </c>
       <c r="O13">
-        <v>2.286435020407055</v>
+        <v>3.503319647231905</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3890113829045987</v>
+        <v>0.127778433017923</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1807130720199837</v>
+        <v>0.1877612231036068</v>
       </c>
       <c r="E14">
-        <v>0.1182288954189836</v>
+        <v>0.1573030120400318</v>
       </c>
       <c r="F14">
-        <v>0.9988435502608581</v>
+        <v>1.457028498726672</v>
       </c>
       <c r="G14">
-        <v>0.0007869946090290593</v>
+        <v>0.002450083735097014</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1753010040703753</v>
+        <v>0.4983065728629867</v>
       </c>
       <c r="J14">
-        <v>0.1076355874463104</v>
+        <v>0.1734205609539075</v>
       </c>
       <c r="K14">
-        <v>2.754343843257885</v>
+        <v>0.9284380224516724</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7546561727934176</v>
+        <v>0.3632145737943446</v>
       </c>
       <c r="N14">
-        <v>0.669027001739888</v>
+        <v>1.542169533880234</v>
       </c>
       <c r="O14">
-        <v>2.264255505669269</v>
+        <v>3.502380870954596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3848103589493093</v>
+        <v>0.1264624716378364</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1790560406127923</v>
+        <v>0.1873979374181118</v>
       </c>
       <c r="E15">
-        <v>0.1173267613717499</v>
+        <v>0.1571617635198805</v>
       </c>
       <c r="F15">
-        <v>0.9922835407775068</v>
+        <v>1.456468373667221</v>
       </c>
       <c r="G15">
-        <v>0.0007874544121900015</v>
+        <v>0.002450364159447316</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1764942992159018</v>
+        <v>0.4989812943014975</v>
       </c>
       <c r="J15">
-        <v>0.1069979821307996</v>
+        <v>0.173381753874331</v>
       </c>
       <c r="K15">
-        <v>2.723952166061451</v>
+        <v>0.9196206834536724</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7463446714455984</v>
+        <v>0.3609818345752416</v>
       </c>
       <c r="N15">
-        <v>0.6727774989913975</v>
+        <v>1.543798201108839</v>
       </c>
       <c r="O15">
-        <v>2.250780805646713</v>
+        <v>3.501842516095053</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3607480364657789</v>
+        <v>0.1189182062995684</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1696068615966624</v>
+        <v>0.1853355119120863</v>
       </c>
       <c r="E16">
-        <v>0.1122056139639369</v>
+        <v>0.1563718699676642</v>
       </c>
       <c r="F16">
-        <v>0.9553224363535833</v>
+        <v>1.453480794701363</v>
       </c>
       <c r="G16">
-        <v>0.000790109356052869</v>
+        <v>0.002451996674110504</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1834903518807547</v>
+        <v>0.5029183561747494</v>
       </c>
       <c r="J16">
-        <v>0.1034061845207859</v>
+        <v>0.1731833281636881</v>
       </c>
       <c r="K16">
-        <v>2.550133521722103</v>
+        <v>0.8690957702832236</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6988628946069682</v>
+        <v>0.3482148317673222</v>
       </c>
       <c r="N16">
-        <v>0.6946386229482293</v>
+        <v>1.553287779674484</v>
       </c>
       <c r="O16">
-        <v>2.175211883037093</v>
+        <v>3.499319510911789</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3459958717224225</v>
+        <v>0.1142875204778733</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.163850031693741</v>
+        <v>0.1840876691276492</v>
       </c>
       <c r="E17">
-        <v>0.1091057921007028</v>
+        <v>0.1559047624936944</v>
       </c>
       <c r="F17">
-        <v>0.9331911625237979</v>
+        <v>1.451846417897812</v>
       </c>
       <c r="G17">
-        <v>0.0007917563102592647</v>
+        <v>0.00245302098504726</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1879202177464894</v>
+        <v>0.5053965269611158</v>
       </c>
       <c r="J17">
-        <v>0.1012562133307</v>
+        <v>0.1730829927977737</v>
       </c>
       <c r="K17">
-        <v>2.443783615709236</v>
+        <v>0.8381044554315338</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6698585218246507</v>
+        <v>0.3404078142274685</v>
       </c>
       <c r="N17">
-        <v>0.7083722099453382</v>
+        <v>1.55924884691197</v>
       </c>
       <c r="O17">
-        <v>2.130270777068773</v>
+        <v>3.498273286419476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3375136664161573</v>
+        <v>0.111623214056948</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1605528955090847</v>
+        <v>0.1833763575491218</v>
       </c>
       <c r="E18">
-        <v>0.1073376331699336</v>
+        <v>0.1556425241054207</v>
       </c>
       <c r="F18">
-        <v>0.9206535437485286</v>
+        <v>1.450979308600324</v>
       </c>
       <c r="G18">
-        <v>0.0007927104453303111</v>
+        <v>0.002453618545891806</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1905178075306235</v>
+        <v>0.5068450235872834</v>
       </c>
       <c r="J18">
-        <v>0.1000385271732824</v>
+        <v>0.1730331484029861</v>
       </c>
       <c r="K18">
-        <v>2.382708218558292</v>
+        <v>0.8202808838210558</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.653218528055703</v>
+        <v>0.3359267404412591</v>
       </c>
       <c r="N18">
-        <v>0.7163874581567242</v>
+        <v>1.562728771271704</v>
       </c>
       <c r="O18">
-        <v>2.104922259757387</v>
+        <v>3.497855844437254</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3346421745968655</v>
+        <v>0.1107209847888839</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1594388943846923</v>
+        <v>0.1831366236938266</v>
       </c>
       <c r="E19">
-        <v>0.1067414474727961</v>
+        <v>0.1555548399612121</v>
       </c>
       <c r="F19">
-        <v>0.9164407157224872</v>
+        <v>1.450698250580658</v>
       </c>
       <c r="G19">
-        <v>0.0007930346895985945</v>
+        <v>0.002453822314907109</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1914057342455351</v>
+        <v>0.5073394301410765</v>
       </c>
       <c r="J19">
-        <v>0.09962942129354246</v>
+        <v>0.1730176233155021</v>
       </c>
       <c r="K19">
-        <v>2.362044455760582</v>
+        <v>0.8142464697560285</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6475915370998138</v>
+        <v>0.3344111337728677</v>
       </c>
       <c r="N19">
-        <v>0.7191209870639739</v>
+        <v>1.563915820977957</v>
       </c>
       <c r="O19">
-        <v>2.096423722534723</v>
+        <v>3.497746162478165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3475659574047825</v>
+        <v>0.1147805552858756</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1644613888820459</v>
+        <v>0.1842198407861559</v>
       </c>
       <c r="E20">
-        <v>0.1094342308614387</v>
+        <v>0.1559538216929184</v>
       </c>
       <c r="F20">
-        <v>0.9355270587350617</v>
+        <v>1.452012851593835</v>
       </c>
       <c r="G20">
-        <v>0.0007915802834850498</v>
+        <v>0.00245291107623758</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.187443488759552</v>
+        <v>0.5051303287627427</v>
       </c>
       <c r="J20">
-        <v>0.1014831070062598</v>
+        <v>0.1730928596775598</v>
       </c>
       <c r="K20">
-        <v>2.455094780943256</v>
+        <v>0.8414033532126552</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.672941614681406</v>
+        <v>0.3412379222456323</v>
       </c>
       <c r="N20">
-        <v>0.7068981805653785</v>
+        <v>1.558608974326397</v>
       </c>
       <c r="O20">
-        <v>2.135002585528582</v>
+        <v>3.498365582460309</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3910261221301852</v>
+        <v>0.12840941634731</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1815085115462693</v>
+        <v>0.1879357710844261</v>
       </c>
       <c r="E21">
-        <v>0.1186623754653588</v>
+        <v>0.1573710898984757</v>
       </c>
       <c r="F21">
-        <v>1.002000721316392</v>
+        <v>1.457301024748062</v>
       </c>
       <c r="G21">
-        <v>0.00078677446900889</v>
+        <v>0.002449949714692401</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1747316167948512</v>
+        <v>0.4979842728405508</v>
       </c>
       <c r="J21">
-        <v>0.1079424616238995</v>
+        <v>0.1734395937219446</v>
       </c>
       <c r="K21">
-        <v>2.768923913704697</v>
+        <v>0.9326662303216153</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7586444978466815</v>
+        <v>0.3642857239196502</v>
       </c>
       <c r="N21">
-        <v>0.6672351468976281</v>
+        <v>1.541391309202698</v>
       </c>
       <c r="O21">
-        <v>2.270746933824597</v>
+        <v>3.502648969731325</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4194675041087663</v>
+        <v>0.1373075570401454</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1927886553319524</v>
+        <v>0.190420949405862</v>
       </c>
       <c r="E22">
-        <v>0.1248380967748339</v>
+        <v>0.1583543862111227</v>
       </c>
       <c r="F22">
-        <v>1.047324441499129</v>
+        <v>1.461406099586824</v>
       </c>
       <c r="G22">
-        <v>0.0007836913301235681</v>
+        <v>0.00244808872733229</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1668889956678772</v>
+        <v>0.4935198039690594</v>
       </c>
       <c r="J22">
-        <v>0.1123484709709146</v>
+        <v>0.1737361591831998</v>
       </c>
       <c r="K22">
-        <v>2.975075233874264</v>
+        <v>0.9923213003371814</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8151022909035532</v>
+        <v>0.379429994836336</v>
       </c>
       <c r="N22">
-        <v>0.642400000199796</v>
+        <v>1.530595106054371</v>
       </c>
       <c r="O22">
-        <v>2.364370563691779</v>
+        <v>3.507089789593778</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4042837403738702</v>
+        <v>0.1325593560809182</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1867548268476185</v>
+        <v>0.1890894088627277</v>
       </c>
       <c r="E23">
-        <v>0.1215281119034728</v>
+        <v>0.1578243751057755</v>
       </c>
       <c r="F23">
-        <v>1.022953663055105</v>
+        <v>1.459155793373199</v>
       </c>
       <c r="G23">
-        <v>0.000785331740438128</v>
+        <v>0.002449075180055786</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1710310120005314</v>
+        <v>0.4958837346377791</v>
       </c>
       <c r="J23">
-        <v>0.1099792188019606</v>
+        <v>0.1735714801011952</v>
       </c>
       <c r="K23">
-        <v>2.864942222939931</v>
+        <v>0.960481718619036</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7849254995471213</v>
+        <v>0.3713398678353812</v>
       </c>
       <c r="N23">
-        <v>0.6555528421092092</v>
+        <v>1.53631547267484</v>
       </c>
       <c r="O23">
-        <v>2.313930125231991</v>
+        <v>3.504569452155522</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3468561248819952</v>
+        <v>0.1145576606607932</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1641849553814723</v>
+        <v>0.1841600670055499</v>
       </c>
       <c r="E24">
-        <v>0.1092857003253656</v>
+        <v>0.1559316223783682</v>
       </c>
       <c r="F24">
-        <v>0.934470422742848</v>
+        <v>1.451937381030675</v>
       </c>
       <c r="G24">
-        <v>0.0007916598425044357</v>
+        <v>0.002452960739059376</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1876588599537161</v>
+        <v>0.5052506029481343</v>
       </c>
       <c r="J24">
-        <v>0.1013804713581621</v>
+        <v>0.1730883744401979</v>
       </c>
       <c r="K24">
-        <v>2.449980797984068</v>
+        <v>0.8399119409263278</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6715476400874891</v>
+        <v>0.3408626077006787</v>
       </c>
       <c r="N24">
-        <v>0.7075642172202627</v>
+        <v>1.558898096166086</v>
       </c>
       <c r="O24">
-        <v>2.132861817534405</v>
+        <v>3.498323282122186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.285013648939028</v>
+        <v>0.09510789804659225</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1403693895364171</v>
+        <v>0.1790884990091541</v>
       </c>
       <c r="E25">
-        <v>0.09663858147782634</v>
+        <v>0.1541359141790899</v>
       </c>
       <c r="F25">
-        <v>0.8462693006686806</v>
+        <v>1.44694009744255</v>
       </c>
       <c r="G25">
-        <v>0.0007987493226929591</v>
+        <v>0.002457473497759075</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2074807574488968</v>
+        <v>0.5162381543708143</v>
       </c>
       <c r="J25">
-        <v>0.09282060171803153</v>
+        <v>0.1728680395950661</v>
       </c>
       <c r="K25">
-        <v>2.005878283039635</v>
+        <v>0.7099306838808275</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5508444976749445</v>
+        <v>0.3083450386779063</v>
       </c>
       <c r="N25">
-        <v>0.7680765680075439</v>
+        <v>1.585217625616206</v>
       </c>
       <c r="O25">
-        <v>1.956455686851086</v>
+        <v>3.498632462916873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08076402653203729</v>
+        <v>0.2394964560021435</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.175567214580866</v>
+        <v>0.1232176094195694</v>
       </c>
       <c r="E2">
-        <v>0.1530259809589367</v>
+        <v>0.08774065141389187</v>
       </c>
       <c r="F2">
-        <v>1.445659671885061</v>
+        <v>0.7866994001292298</v>
       </c>
       <c r="G2">
-        <v>0.00246107558446808</v>
+        <v>0.0008042131154366086</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5250896831123804</v>
+        <v>0.2235845925821325</v>
       </c>
       <c r="J2">
-        <v>0.1729647364851488</v>
+        <v>0.08705345743389614</v>
       </c>
       <c r="K2">
-        <v>0.614301067686938</v>
+        <v>1.680827256821772</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2847130190385627</v>
+        <v>0.4629958096820417</v>
       </c>
       <c r="N2">
-        <v>1.606286738031979</v>
+        <v>0.8161693141735569</v>
       </c>
       <c r="O2">
-        <v>3.504915846646043</v>
+        <v>1.840599224389422</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07103114751537021</v>
+        <v>0.2086274966176518</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1733145716070226</v>
+        <v>0.1117999715449329</v>
       </c>
       <c r="E3">
-        <v>0.1524065783082875</v>
+        <v>0.08193844670673656</v>
       </c>
       <c r="F3">
-        <v>1.44628900331282</v>
+        <v>0.7492878988338916</v>
       </c>
       <c r="G3">
-        <v>0.002463692435612008</v>
+        <v>0.0008080760191179804</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5315640392458052</v>
+        <v>0.2353866614378086</v>
       </c>
       <c r="J3">
-        <v>0.1731919482371644</v>
+        <v>0.0834424870491155</v>
       </c>
       <c r="K3">
-        <v>0.5495467292039109</v>
+        <v>1.46126523071058</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2688932535344222</v>
+        <v>0.4039424938277349</v>
       </c>
       <c r="N3">
-        <v>1.621621793670325</v>
+        <v>0.8508512158565296</v>
       </c>
       <c r="O3">
-        <v>3.512950023484478</v>
+        <v>1.769816487854229</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06505023982553837</v>
+        <v>0.1896536803680817</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.171997797137756</v>
+        <v>0.1048812310272922</v>
       </c>
       <c r="E4">
-        <v>0.1520919391578275</v>
+        <v>0.07847905850996639</v>
       </c>
       <c r="F4">
-        <v>1.447414254614174</v>
+        <v>0.7276569561402084</v>
       </c>
       <c r="G4">
-        <v>0.002465386315214413</v>
+        <v>0.0008105292475326081</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5357740824352826</v>
+        <v>0.2430546632873547</v>
       </c>
       <c r="J4">
-        <v>0.1734112798005754</v>
+        <v>0.08136085674860283</v>
       </c>
       <c r="K4">
-        <v>0.5098179786788535</v>
+        <v>1.326668323561137</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2592774678017378</v>
+        <v>0.3678743914550395</v>
       </c>
       <c r="N4">
-        <v>1.631559231558565</v>
+        <v>0.8731397182355636</v>
       </c>
       <c r="O4">
-        <v>3.519745360594442</v>
+        <v>1.729858710369342</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06261194150879135</v>
+        <v>0.1819154321107277</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1714779607190806</v>
+        <v>0.1020834969005335</v>
       </c>
       <c r="E5">
-        <v>0.1519802700391217</v>
+        <v>0.07709399563508512</v>
       </c>
       <c r="F5">
-        <v>1.448058711018312</v>
+        <v>0.7191623686981004</v>
       </c>
       <c r="G5">
-        <v>0.002466098557368284</v>
+        <v>0.0008115497631953453</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5375487565399615</v>
+        <v>0.2462830004566099</v>
       </c>
       <c r="J5">
-        <v>0.1735207480988983</v>
+        <v>0.08054508913404135</v>
       </c>
       <c r="K5">
-        <v>0.4936367820641863</v>
+        <v>1.271853897062442</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2553837403482007</v>
+        <v>0.3532179914205926</v>
       </c>
       <c r="N5">
-        <v>1.635740056022637</v>
+        <v>0.8824670216437696</v>
       </c>
       <c r="O5">
-        <v>3.522982911517659</v>
+        <v>1.714412899724607</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06220700753920028</v>
+        <v>0.1806300899146578</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1713926567025368</v>
+        <v>0.1016202079778594</v>
       </c>
       <c r="E6">
-        <v>0.1519627279793738</v>
+        <v>0.07686546042344133</v>
       </c>
       <c r="F6">
-        <v>1.448176954416624</v>
+        <v>0.717770714339288</v>
       </c>
       <c r="G6">
-        <v>0.002466218153562182</v>
+        <v>0.0008117204853408767</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5378470065614511</v>
+        <v>0.2468252492478884</v>
       </c>
       <c r="J6">
-        <v>0.1735401390444373</v>
+        <v>0.08041155094928243</v>
       </c>
       <c r="K6">
-        <v>0.4909504514899652</v>
+        <v>1.262753572314239</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2547386937132856</v>
+        <v>0.350786643466499</v>
       </c>
       <c r="N6">
-        <v>1.636442207114925</v>
+        <v>0.884030433240671</v>
       </c>
       <c r="O6">
-        <v>3.523548797357364</v>
+        <v>1.711897471977835</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.065017359990307</v>
+        <v>0.1895493465411562</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1719907184831229</v>
+        <v>0.1048434136562832</v>
       </c>
       <c r="E7">
-        <v>0.1520903660978696</v>
+        <v>0.07846028084660972</v>
       </c>
       <c r="F7">
-        <v>1.447422193088336</v>
+        <v>0.7275411202107378</v>
       </c>
       <c r="G7">
-        <v>0.002465395831572625</v>
+        <v>0.0008105429258107928</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5357977772109743</v>
+        <v>0.2430977855779419</v>
       </c>
       <c r="J7">
-        <v>0.1734126747667055</v>
+        <v>0.08134972538813656</v>
       </c>
       <c r="K7">
-        <v>0.5095997174508966</v>
+        <v>1.325928960242607</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2592248549702063</v>
+        <v>0.3676765696477631</v>
       </c>
       <c r="N7">
-        <v>1.631615084156103</v>
+        <v>0.8732645261417069</v>
       </c>
       <c r="O7">
-        <v>3.519787126692279</v>
+        <v>1.729647068580704</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07740925820723987</v>
+        <v>0.2288562701597101</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1747767740065171</v>
+        <v>0.1192609263716378</v>
       </c>
       <c r="E8">
-        <v>0.152798799604227</v>
+        <v>0.08571784236807645</v>
       </c>
       <c r="F8">
-        <v>1.445723387667904</v>
+        <v>0.7735114946218076</v>
       </c>
       <c r="G8">
-        <v>0.002461959831536908</v>
+        <v>0.0008055283609947088</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5272733254996433</v>
+        <v>0.2275649848327133</v>
       </c>
       <c r="J8">
-        <v>0.1730265216665785</v>
+        <v>0.08577930217305152</v>
       </c>
       <c r="K8">
-        <v>0.5919679120618468</v>
+        <v>1.605065682995985</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2792382411690539</v>
+        <v>0.4425906633118899</v>
       </c>
       <c r="N8">
-        <v>1.611466035990393</v>
+        <v>0.8279181331158405</v>
       </c>
       <c r="O8">
-        <v>3.507299558937945</v>
+        <v>1.815439351708676</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1016634899278444</v>
+        <v>0.3058382111617703</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1807639182862886</v>
+        <v>0.1483275262535955</v>
       </c>
       <c r="E9">
-        <v>0.1547078849242247</v>
+        <v>0.1008302338570388</v>
       </c>
       <c r="F9">
-        <v>1.448250828886557</v>
+        <v>0.8750907655895475</v>
       </c>
       <c r="G9">
-        <v>0.002455910159139662</v>
+        <v>0.0007963244417353299</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5124187786961985</v>
+        <v>0.2005619864020112</v>
       </c>
       <c r="J9">
-        <v>0.1729020572964259</v>
+        <v>0.09561573317483862</v>
       </c>
       <c r="K9">
-        <v>0.7537044064186773</v>
+        <v>2.155105798625669</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3192506650167601</v>
+        <v>0.5913224362065463</v>
       </c>
       <c r="N9">
-        <v>1.576089563627839</v>
+        <v>0.7471269380057812</v>
       </c>
       <c r="O9">
-        <v>3.497587355974929</v>
+        <v>2.013556563520979</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1194464784621658</v>
+        <v>0.3624317877288803</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.185478766887158</v>
+        <v>0.1702657040062263</v>
       </c>
       <c r="E10">
-        <v>0.1564260406315192</v>
+        <v>0.1125613703485158</v>
       </c>
       <c r="F10">
-        <v>1.453677170223429</v>
+        <v>0.9578743117031792</v>
       </c>
       <c r="G10">
-        <v>0.002451880930335281</v>
+        <v>0.0007899223446108421</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5026387123383049</v>
+        <v>0.1829916777954406</v>
       </c>
       <c r="J10">
-        <v>0.1731958426696707</v>
+        <v>0.1036541275235621</v>
       </c>
       <c r="K10">
-        <v>0.8726323179833457</v>
+        <v>2.56228223418222</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3491069231723145</v>
+        <v>0.7021784816298506</v>
       </c>
       <c r="N10">
-        <v>1.552614528228546</v>
+        <v>0.6930874272724061</v>
       </c>
       <c r="O10">
-        <v>3.499463868327439</v>
+        <v>2.180409265721721</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1275267931052753</v>
+        <v>0.3882079677533739</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1876916767888162</v>
+        <v>0.1803960118748051</v>
       </c>
       <c r="E11">
-        <v>0.1572759254398797</v>
+        <v>0.1180561872189294</v>
       </c>
       <c r="F11">
-        <v>1.456920525714722</v>
+        <v>0.9975865727643338</v>
       </c>
       <c r="G11">
-        <v>0.002450137262173684</v>
+        <v>0.0007870824611441133</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4984353273999371</v>
+        <v>0.1755285802783924</v>
       </c>
       <c r="J11">
-        <v>0.173413047153673</v>
+        <v>0.1075134122125476</v>
       </c>
       <c r="K11">
-        <v>0.9267518652663682</v>
+        <v>2.748530623692233</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3627874982420849</v>
+        <v>0.753066163493699</v>
       </c>
       <c r="N11">
-        <v>1.542480379899612</v>
+        <v>0.6697427673015213</v>
       </c>
       <c r="O11">
-        <v>3.502275745830872</v>
+        <v>2.261672195633253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1305850873758061</v>
+        <v>0.3979751514526839</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1885393747744644</v>
+        <v>0.1842557870695742</v>
       </c>
       <c r="E12">
-        <v>0.1576075451568322</v>
+        <v>0.1201615964844507</v>
       </c>
       <c r="F12">
-        <v>1.45826005628625</v>
+        <v>1.012944964691243</v>
       </c>
       <c r="G12">
-        <v>0.00244948974761976</v>
+        <v>0.0007860170061659838</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4968789198265995</v>
+        <v>0.1727820080718701</v>
       </c>
       <c r="J12">
-        <v>0.1735073004620205</v>
+        <v>0.1090062801631149</v>
       </c>
       <c r="K12">
-        <v>0.9472474712938492</v>
+        <v>2.819235603615795</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3679819866009737</v>
+        <v>0.7724118788123207</v>
       </c>
       <c r="N12">
-        <v>1.538721123113369</v>
+        <v>0.6610884521064087</v>
       </c>
       <c r="O12">
-        <v>3.503622142049181</v>
+        <v>2.293280762503031</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1299265011350883</v>
+        <v>0.3958713037815187</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1883563768867873</v>
+        <v>0.1834234303564841</v>
       </c>
       <c r="E13">
-        <v>0.1575356901706293</v>
+        <v>0.119707031654503</v>
       </c>
       <c r="F13">
-        <v>1.457966613796202</v>
+        <v>1.009622602789293</v>
       </c>
       <c r="G13">
-        <v>0.002449628634238498</v>
+        <v>0.0007862460364011503</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4972125489807677</v>
+        <v>0.1733699383524669</v>
       </c>
       <c r="J13">
-        <v>0.1734864677127348</v>
+        <v>0.1086833275337256</v>
       </c>
       <c r="K13">
-        <v>0.9428333153493043</v>
+        <v>2.803999659677316</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3668626442020297</v>
+        <v>0.7682419059795507</v>
       </c>
       <c r="N13">
-        <v>1.539527262933618</v>
+        <v>0.6629439216027464</v>
       </c>
       <c r="O13">
-        <v>3.503319647231905</v>
+        <v>2.286435020407112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.127778433017923</v>
+        <v>0.389011382904684</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1877612231036068</v>
+        <v>0.1807130720201258</v>
       </c>
       <c r="E14">
-        <v>0.1573030120400318</v>
+        <v>0.1182288954189872</v>
       </c>
       <c r="F14">
-        <v>1.457028498726672</v>
+        <v>0.9988435502608439</v>
       </c>
       <c r="G14">
-        <v>0.002450083735097014</v>
+        <v>0.0007869946089723845</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4983065728629867</v>
+        <v>0.17530100407037</v>
       </c>
       <c r="J14">
-        <v>0.1734205609539075</v>
+        <v>0.1076355874463957</v>
       </c>
       <c r="K14">
-        <v>0.9284380224516724</v>
+        <v>2.754343843257857</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3632145737943446</v>
+        <v>0.7546561727934389</v>
       </c>
       <c r="N14">
-        <v>1.542169533880234</v>
+        <v>0.6690270017398774</v>
       </c>
       <c r="O14">
-        <v>3.502380870954596</v>
+        <v>2.264255505669155</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1264624716378364</v>
+        <v>0.3848103589491814</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1873979374181118</v>
+        <v>0.1790560406127923</v>
       </c>
       <c r="E15">
-        <v>0.1571617635198805</v>
+        <v>0.1173267613717179</v>
       </c>
       <c r="F15">
-        <v>1.456468373667221</v>
+        <v>0.9922835407774784</v>
       </c>
       <c r="G15">
-        <v>0.002450364159447316</v>
+        <v>0.0007874544122194937</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4989812943014975</v>
+        <v>0.1764942992159053</v>
       </c>
       <c r="J15">
-        <v>0.173381753874331</v>
+        <v>0.1069979821308422</v>
       </c>
       <c r="K15">
-        <v>0.9196206834536724</v>
+        <v>2.72395216606148</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3609818345752416</v>
+        <v>0.7463446714456268</v>
       </c>
       <c r="N15">
-        <v>1.543798201108839</v>
+        <v>0.6727774989913407</v>
       </c>
       <c r="O15">
-        <v>3.501842516095053</v>
+        <v>2.250780805646713</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1189182062995684</v>
+        <v>0.3607480364657931</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1853355119120863</v>
+        <v>0.1696068615966198</v>
       </c>
       <c r="E16">
-        <v>0.1563718699676642</v>
+        <v>0.1122056139639369</v>
       </c>
       <c r="F16">
-        <v>1.453480794701363</v>
+        <v>0.9553224363535691</v>
       </c>
       <c r="G16">
-        <v>0.002451996674110504</v>
+        <v>0.0007901093560248546</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5029183561747494</v>
+        <v>0.1834903518807511</v>
       </c>
       <c r="J16">
-        <v>0.1731833281636881</v>
+        <v>0.1034061845207361</v>
       </c>
       <c r="K16">
-        <v>0.8690957702832236</v>
+        <v>2.550133521721932</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3482148317673222</v>
+        <v>0.698862894606961</v>
       </c>
       <c r="N16">
-        <v>1.553287779674484</v>
+        <v>0.6946386229482187</v>
       </c>
       <c r="O16">
-        <v>3.499319510911789</v>
+        <v>2.175211883037036</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1142875204778733</v>
+        <v>0.3459958717223088</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1840876691276492</v>
+        <v>0.1638500316936984</v>
       </c>
       <c r="E17">
-        <v>0.1559047624936944</v>
+        <v>0.1091057921007028</v>
       </c>
       <c r="F17">
-        <v>1.451846417897812</v>
+        <v>0.9331911625237979</v>
       </c>
       <c r="G17">
-        <v>0.00245302098504726</v>
+        <v>0.0007917563102874894</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5053965269611158</v>
+        <v>0.1879202177464894</v>
       </c>
       <c r="J17">
-        <v>0.1730829927977737</v>
+        <v>0.1012562133308279</v>
       </c>
       <c r="K17">
-        <v>0.8381044554315338</v>
+        <v>2.443783615709236</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3404078142274685</v>
+        <v>0.6698585218246365</v>
       </c>
       <c r="N17">
-        <v>1.55924884691197</v>
+        <v>0.7083722099452849</v>
       </c>
       <c r="O17">
-        <v>3.498273286419476</v>
+        <v>2.130270777068773</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.111623214056948</v>
+        <v>0.3375136664161573</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1833763575491218</v>
+        <v>0.1605528955089568</v>
       </c>
       <c r="E18">
-        <v>0.1556425241054207</v>
+        <v>0.1073376331699301</v>
       </c>
       <c r="F18">
-        <v>1.450979308600324</v>
+        <v>0.9206535437485286</v>
       </c>
       <c r="G18">
-        <v>0.002453618545891806</v>
+        <v>0.0007927104453020742</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5068450235872834</v>
+        <v>0.1905178075306218</v>
       </c>
       <c r="J18">
-        <v>0.1730331484029861</v>
+        <v>0.1000385271733322</v>
       </c>
       <c r="K18">
-        <v>0.8202808838210558</v>
+        <v>2.382708218558292</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3359267404412591</v>
+        <v>0.6532185280557172</v>
       </c>
       <c r="N18">
-        <v>1.562728771271704</v>
+        <v>0.7163874581566603</v>
       </c>
       <c r="O18">
-        <v>3.497855844437254</v>
+        <v>2.104922259757359</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1107209847888839</v>
+        <v>0.3346421745968655</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1831366236938266</v>
+        <v>0.1594388943845928</v>
       </c>
       <c r="E19">
-        <v>0.1555548399612121</v>
+        <v>0.1067414474727819</v>
       </c>
       <c r="F19">
-        <v>1.450698250580658</v>
+        <v>0.9164407157225014</v>
       </c>
       <c r="G19">
-        <v>0.002453822314907109</v>
+        <v>0.0007930346895703056</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5073394301410765</v>
+        <v>0.1914057342455511</v>
       </c>
       <c r="J19">
-        <v>0.1730176233155021</v>
+        <v>0.09962942129373431</v>
       </c>
       <c r="K19">
-        <v>0.8142464697560285</v>
+        <v>2.362044455760639</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3344111337728677</v>
+        <v>0.6475915370997924</v>
       </c>
       <c r="N19">
-        <v>1.563915820977957</v>
+        <v>0.7191209870640307</v>
       </c>
       <c r="O19">
-        <v>3.497746162478165</v>
+        <v>2.09642372253478</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1147805552858756</v>
+        <v>0.3475659574047825</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1842198407861559</v>
+        <v>0.1644613888821738</v>
       </c>
       <c r="E20">
-        <v>0.1559538216929184</v>
+        <v>0.1094342308614316</v>
       </c>
       <c r="F20">
-        <v>1.452012851593835</v>
+        <v>0.9355270587350617</v>
       </c>
       <c r="G20">
-        <v>0.00245291107623758</v>
+        <v>0.0007915802835145411</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5051303287627427</v>
+        <v>0.187443488759552</v>
       </c>
       <c r="J20">
-        <v>0.1730928596775598</v>
+        <v>0.1014831070063593</v>
       </c>
       <c r="K20">
-        <v>0.8414033532126552</v>
+        <v>2.455094780943369</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3412379222456323</v>
+        <v>0.6729416146814344</v>
       </c>
       <c r="N20">
-        <v>1.558608974326397</v>
+        <v>0.706898180565382</v>
       </c>
       <c r="O20">
-        <v>3.498365582460309</v>
+        <v>2.135002585528554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.12840941634731</v>
+        <v>0.3910261221302989</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1879357710844261</v>
+        <v>0.1815085115462836</v>
       </c>
       <c r="E21">
-        <v>0.1573710898984757</v>
+        <v>0.1186623754653766</v>
       </c>
       <c r="F21">
-        <v>1.457301024748062</v>
+        <v>1.002000721316378</v>
       </c>
       <c r="G21">
-        <v>0.002449949714692401</v>
+        <v>0.0007867744690084682</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4979842728405508</v>
+        <v>0.1747316167948352</v>
       </c>
       <c r="J21">
-        <v>0.1734395937219446</v>
+        <v>0.1079424616239208</v>
       </c>
       <c r="K21">
-        <v>0.9326662303216153</v>
+        <v>2.768923913704924</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3642857239196502</v>
+        <v>0.7586444978466815</v>
       </c>
       <c r="N21">
-        <v>1.541391309202698</v>
+        <v>0.6672351468976068</v>
       </c>
       <c r="O21">
-        <v>3.502648969731325</v>
+        <v>2.270746933824654</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1373075570401454</v>
+        <v>0.4194675041090079</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.190420949405862</v>
+        <v>0.1927886553318388</v>
       </c>
       <c r="E22">
-        <v>0.1583543862111227</v>
+        <v>0.1248380967748339</v>
       </c>
       <c r="F22">
-        <v>1.461406099586824</v>
+        <v>1.047324441499114</v>
       </c>
       <c r="G22">
-        <v>0.00244808872733229</v>
+        <v>0.0007836913300661164</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4935198039690594</v>
+        <v>0.166888995667879</v>
       </c>
       <c r="J22">
-        <v>0.1737361591831998</v>
+        <v>0.1123484709709217</v>
       </c>
       <c r="K22">
-        <v>0.9923213003371814</v>
+        <v>2.975075233874435</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.379429994836336</v>
+        <v>0.8151022909035532</v>
       </c>
       <c r="N22">
-        <v>1.530595106054371</v>
+        <v>0.6424000001997356</v>
       </c>
       <c r="O22">
-        <v>3.507089789593778</v>
+        <v>2.364370563691836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1325593560809182</v>
+        <v>0.4042837403738702</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1890894088627277</v>
+        <v>0.1867548268475048</v>
       </c>
       <c r="E23">
-        <v>0.1578243751057755</v>
+        <v>0.1215281119034621</v>
       </c>
       <c r="F23">
-        <v>1.459155793373199</v>
+        <v>1.022953663055091</v>
       </c>
       <c r="G23">
-        <v>0.002449075180055786</v>
+        <v>0.0007853317404395827</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4958837346377791</v>
+        <v>0.1710310120005314</v>
       </c>
       <c r="J23">
-        <v>0.1735714801011952</v>
+        <v>0.109979218802124</v>
       </c>
       <c r="K23">
-        <v>0.960481718619036</v>
+        <v>2.864942222939959</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3713398678353812</v>
+        <v>0.7849254995471426</v>
       </c>
       <c r="N23">
-        <v>1.53631547267484</v>
+        <v>0.6555528421092021</v>
       </c>
       <c r="O23">
-        <v>3.504569452155522</v>
+        <v>2.313930125231906</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1145576606607932</v>
+        <v>0.3468561248820947</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1841600670055499</v>
+        <v>0.1641849553817707</v>
       </c>
       <c r="E24">
-        <v>0.1559316223783682</v>
+        <v>0.1092857003253691</v>
       </c>
       <c r="F24">
-        <v>1.451937381030675</v>
+        <v>0.934470422742848</v>
       </c>
       <c r="G24">
-        <v>0.002452960739059376</v>
+        <v>0.0007916598425033875</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5052506029481343</v>
+        <v>0.1876588599537143</v>
       </c>
       <c r="J24">
-        <v>0.1730883744401979</v>
+        <v>0.1013804713582545</v>
       </c>
       <c r="K24">
-        <v>0.8399119409263278</v>
+        <v>2.449980797984068</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3408626077006787</v>
+        <v>0.6715476400874962</v>
       </c>
       <c r="N24">
-        <v>1.558898096166086</v>
+        <v>0.7075642172201988</v>
       </c>
       <c r="O24">
-        <v>3.498323282122186</v>
+        <v>2.132861817534376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09510789804659225</v>
+        <v>0.2850136489392696</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1790884990091541</v>
+        <v>0.1403693895367297</v>
       </c>
       <c r="E25">
-        <v>0.1541359141790899</v>
+        <v>0.09663858147783344</v>
       </c>
       <c r="F25">
-        <v>1.44694009744255</v>
+        <v>0.8462693006686663</v>
       </c>
       <c r="G25">
-        <v>0.002457473497759075</v>
+        <v>0.0007987493227442245</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5162381543708143</v>
+        <v>0.2074807574489084</v>
       </c>
       <c r="J25">
-        <v>0.1728680395950661</v>
+        <v>0.09282060171808837</v>
       </c>
       <c r="K25">
-        <v>0.7099306838808275</v>
+        <v>2.005878283039635</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3083450386779063</v>
+        <v>0.5508444976749587</v>
       </c>
       <c r="N25">
-        <v>1.585217625616206</v>
+        <v>0.7680765680075439</v>
       </c>
       <c r="O25">
-        <v>3.498632462916873</v>
+        <v>1.956455686851058</v>
       </c>
     </row>
   </sheetData>
